--- a/Question_Set2/Programming skills/Scikit-learn.xlsx
+++ b/Question_Set2/Programming skills/Scikit-learn.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are applying linear regression using the built-in sklearn.linear_model.LinearRegression class. You want the fitted line to pass through the origin of all dimensions: (0, 0, …, 0) point. How should the class be initialized?', 'ques_type': 2, 'options': ['LinearRegression()', 'LinearRegression(fit_intercept=False)', 'LinearRegression(positive=True)', 'LinearRegression(intercept=0)'], 'score': 'LinearRegression(fit_intercept=False)'}, {'title': 'You are creating a support vector machine model using the built-in sklearn.svm.SVR class, and you want the kernel coefficient to always be set to (1/number of independent variables). How should the class be initialized?', 'ques_type': 2, 'options': ['SVR()', 'SVR(scale=”auto”)', 'SVR(gamma=”auto”)', 'SVR(coef0=”scale”)'], 'score': 'SVR(gamma=”auto”)'}, {'title': 'You are creating a clustering model using the built-in sklearn.cluster.KMeans class, and you want to manually specify the initial centroids of the class. There are eight features in the dataset, four target classes, and 120 samples. What should be the shape of the data structure storing the initial centroids?', 'ques_type': 2, 'options': ['(4, 8)', '(4, 120)', '(8, 120)', '(4, 8, 120)'], 'score': '(4, 8)'}, {'title': 'True or false: When creating an ML model pipeline using the built-in sklearn.pipeline.Pipeline class, each data transformation or model class should be provided as a separate argument to the class constructor.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}]</t>
+    <t>questions = [
+    {
+        "title": "You are applying linear regression using the built-in sklearn.linear_model.LinearRegression class. You want the fitted line to pass through the origin of all dimensions: (0, 0, \u2026, 0) point. How should the class be initialized?",
+        "ques_type": 2,
+        "options": [
+            "LinearRegression()",
+            "LinearRegression(fit_intercept=False)",
+            "LinearRegression(positive=True)",
+            "LinearRegression(intercept=0)"
+        ],
+        "score": "LinearRegression(fit_intercept=False)"
+    },
+    {
+        "title": "You are creating a support vector machine model using the built-in sklearn.svm.SVR class, and you want the kernel coefficient to always be set to (1/number of independent variables). How should the class be initialized?",
+        "ques_type": 2,
+        "options": [
+            "SVR()",
+            "SVR(scale=\u201dauto\u201d)",
+            "SVR(gamma=\u201dauto\u201d)",
+            "SVR(coef0=\u201dscale\u201d)"
+        ],
+        "score": "SVR(gamma=\u201dauto\u201d)"
+    },
+    {
+        "title": "You are creating a clustering model using the built-in sklearn.cluster.KMeans class, and you want to manually specify the initial centroids of the class. There are eight features in the dataset, four target classes, and 120 samples. What should be the shape of the data structure storing the initial centroids?",
+        "ques_type": 2,
+        "options": [
+            "(4, 8)",
+            "(4, 120)",
+            "(8, 120)",
+            "(4, 8, 120)"
+        ],
+        "score": "(4, 8)"
+    },
+    {
+        "title": "True or false: When creating an ML model pipeline using the built-in sklearn.pipeline.Pipeline class, each data transformation or model class should be provided as a separate argument to the class constructor.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
